--- a/public/admin/format_import/format_import_user.xlsx
+++ b/public/admin/format_import/format_import_user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fioju\OneDrive\Documents\GitHub\erpintercipta\public\admin\format_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0060B7BB-ED4B-493C-802C-5829609D0CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE09A0FF-889B-4B76-9491-4E529B50D432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>No NIK</t>
   </si>
@@ -46,17 +46,90 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>Tempat Lahir</t>
+  </si>
+  <si>
+    <t>Tanggal Lahir</t>
+  </si>
+  <si>
+    <t>Agama</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Tinggal Di</t>
+  </si>
+  <si>
+    <t>Ibu Kandung</t>
+  </si>
+  <si>
+    <t>Nama Keluarga</t>
+  </si>
+  <si>
+    <t>Alamat Domisili</t>
+  </si>
+  <si>
+    <t>Jenis Kelamin</t>
+  </si>
+  <si>
+    <t>Berat</t>
+  </si>
+  <si>
+    <t>Tinggi</t>
+  </si>
+  <si>
+    <t>Hobi</t>
+  </si>
+  <si>
+    <t>Nama Bank</t>
+  </si>
+  <si>
+    <t>No Rekening</t>
+  </si>
+  <si>
+    <t>Referensi</t>
+  </si>
+  <si>
+    <t>Pekerjaan Referensi</t>
+  </si>
+  <si>
+    <t>Hubungan Referensi</t>
+  </si>
+  <si>
+    <t>Alamat Referensi</t>
+  </si>
+  <si>
+    <t>SKCK Active</t>
+  </si>
+  <si>
+    <t>No KK</t>
+  </si>
+  <si>
+    <t>No NPWP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,8 +152,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,36 +459,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.21875" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/admin/format_import/format_import_user.xlsx
+++ b/public/admin/format_import/format_import_user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fioju\OneDrive\Documents\GitHub\erpintercipta\public\admin\format_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE09A0FF-889B-4B76-9491-4E529B50D432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540FD5FB-834E-4079-B038-12CA852CB85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>No NIK</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>No NPWP</t>
+  </si>
+  <si>
+    <t>Jabatan</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Area</t>
   </si>
 </sst>
 </file>
@@ -459,27 +468,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.21875" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.21875" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,69 +505,78 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>26</v>
       </c>
     </row>

--- a/public/admin/format_import/format_import_user.xlsx
+++ b/public/admin/format_import/format_import_user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fioju\OneDrive\Documents\GitHub\erpintercipta\public\admin\format_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540FD5FB-834E-4079-B038-12CA852CB85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129AD6D8-7980-4E68-961D-26CCFB2C8E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>No NIK</t>
   </si>
@@ -112,15 +112,6 @@
   </si>
   <si>
     <t>No NPWP</t>
-  </si>
-  <si>
-    <t>Jabatan</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>Area</t>
   </si>
 </sst>
 </file>
@@ -468,27 +459,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="18.21875" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" customWidth="1"/>
-    <col min="16" max="16" width="15.5546875" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.21875" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,78 +496,69 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" s="1" t="s">
         <v>26</v>
       </c>
     </row>

--- a/public/admin/format_import/format_import_user.xlsx
+++ b/public/admin/format_import/format_import_user.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fioju\OneDrive\Documents\GitHub\erpintercipta\public\admin\format_import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\erpintercipta\public\admin\format_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129AD6D8-7980-4E68-961D-26CCFB2C8E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D5531F-AEE4-4BB3-BA54-561CD451A435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>No NIK</t>
   </si>
@@ -48,9 +45,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Alamat</t>
-  </si>
-  <si>
     <t>Tempat Lahir</t>
   </si>
   <si>
@@ -63,15 +57,9 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Tinggal Di</t>
-  </si>
-  <si>
     <t>Ibu Kandung</t>
   </si>
   <si>
-    <t>Nama Keluarga</t>
-  </si>
-  <si>
     <t>Alamat Domisili</t>
   </si>
   <si>
@@ -84,41 +72,65 @@
     <t>Tinggi</t>
   </si>
   <si>
-    <t>Hobi</t>
-  </si>
-  <si>
     <t>Nama Bank</t>
   </si>
   <si>
     <t>No Rekening</t>
   </si>
   <si>
-    <t>Referensi</t>
-  </si>
-  <si>
-    <t>Pekerjaan Referensi</t>
-  </si>
-  <si>
-    <t>Hubungan Referensi</t>
-  </si>
-  <si>
-    <t>Alamat Referensi</t>
-  </si>
-  <si>
-    <t>SKCK Active</t>
-  </si>
-  <si>
     <t>No KK</t>
   </si>
   <si>
     <t>No NPWP</t>
+  </si>
+  <si>
+    <t>NIK Karyawan</t>
+  </si>
+  <si>
+    <t>Alamat KTP</t>
+  </si>
+  <si>
+    <t>fio@gmail.com</t>
+  </si>
+  <si>
+    <t>Fio Ganteng</t>
+  </si>
+  <si>
+    <t>Jl</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>Islam</t>
+  </si>
+  <si>
+    <t>TK-0</t>
+  </si>
+  <si>
+    <t>ajskdakd</t>
+  </si>
+  <si>
+    <t>dsad</t>
+  </si>
+  <si>
+    <t>asdad</t>
+  </si>
+  <si>
+    <t>sadad</t>
+  </si>
+  <si>
+    <t>dasdad123</t>
+  </si>
+  <si>
+    <t>Karyawan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -126,6 +138,18 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -149,14 +173,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -459,27 +488,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="J6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.21875" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.21875" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,83 +516,133 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="U1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>12321312312</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="C2">
+        <v>3123131</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="E2">
+        <v>646546565</v>
+      </c>
+      <c r="F2">
+        <v>123456</v>
+      </c>
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="I2" s="3">
+        <v>280799</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="L2" s="4" t="s">
         <v>26</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2">
+        <v>87</v>
+      </c>
+      <c r="P2">
+        <v>899</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2">
+        <v>131321</v>
+      </c>
+      <c r="T2">
+        <v>13221312</v>
+      </c>
+      <c r="U2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{311316B2-9D05-4447-BDD3-AC50DCF3C73C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/admin/format_import/format_import_user.xlsx
+++ b/public/admin/format_import/format_import_user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\erpintercipta\public\admin\format_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D5531F-AEE4-4BB3-BA54-561CD451A435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CB5D0F-C106-4DC5-831D-E1A681A49A80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>No NIK</t>
   </si>
@@ -87,50 +87,77 @@
     <t>NIK Karyawan</t>
   </si>
   <si>
-    <t>Alamat KTP</t>
-  </si>
-  <si>
-    <t>fio@gmail.com</t>
-  </si>
-  <si>
-    <t>Fio Ganteng</t>
-  </si>
-  <si>
-    <t>Jl</t>
-  </si>
-  <si>
-    <t>Jakarta</t>
-  </si>
-  <si>
-    <t>Islam</t>
-  </si>
-  <si>
-    <t>TK-0</t>
-  </si>
-  <si>
-    <t>ajskdakd</t>
-  </si>
-  <si>
-    <t>dsad</t>
-  </si>
-  <si>
-    <t>asdad</t>
-  </si>
-  <si>
-    <t>sadad</t>
-  </si>
-  <si>
-    <t>dasdad123</t>
-  </si>
-  <si>
-    <t>Karyawan</t>
+    <t>Jabatan</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>Tinggal Di</t>
+  </si>
+  <si>
+    <t>Nama Keluarga</t>
+  </si>
+  <si>
+    <t>Hobi</t>
+  </si>
+  <si>
+    <t>Referensi</t>
+  </si>
+  <si>
+    <t>Pekerjaan Referensi</t>
+  </si>
+  <si>
+    <t>Hubungan Referensi</t>
+  </si>
+  <si>
+    <t>Alamat Referensi</t>
+  </si>
+  <si>
+    <t>SKCK Active</t>
+  </si>
+  <si>
+    <t>yadichalitha22@gmail.com</t>
+  </si>
+  <si>
+    <t>HARYADI</t>
+  </si>
+  <si>
+    <t>Anggota</t>
+  </si>
+  <si>
+    <t>Jl. Warakas 1 Gg 5 a No 21 Rt 006/001 Kel. Warakas Kec. Tanjung Priok Jakarta Utara</t>
+  </si>
+  <si>
+    <t>JAKARTA</t>
+  </si>
+  <si>
+    <t>ISLAM</t>
+  </si>
+  <si>
+    <t>K-1</t>
+  </si>
+  <si>
+    <t>HALIMAH</t>
+  </si>
+  <si>
+    <t>Laki-laki</t>
+  </si>
+  <si>
+    <t>BRI</t>
+  </si>
+  <si>
+    <t>086901010384503</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -142,12 +169,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -173,19 +194,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -488,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="J6" sqref="A1:XFD1048576"/>
+      <selection activeCell="M1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,7 +528,7 @@
     <col min="14" max="14" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,133 +536,136 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>12321312312</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>3123131</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>3172022212820000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>85714156266</v>
       </c>
       <c r="E2">
-        <v>646546565</v>
-      </c>
-      <c r="F2">
         <v>123456</v>
       </c>
-      <c r="G2" t="s">
-        <v>22</v>
+      <c r="F2" t="s">
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="3">
-        <v>280799</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2">
-        <v>87</v>
-      </c>
-      <c r="P2">
-        <v>899</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2">
-        <v>131321</v>
-      </c>
-      <c r="T2">
-        <v>13221312</v>
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="5">
+        <v>30307</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="U2" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="V2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{311316B2-9D05-4447-BDD3-AC50DCF3C73C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/admin/format_import/format_import_user.xlsx
+++ b/public/admin/format_import/format_import_user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\erpintercipta\public\admin\format_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CB5D0F-C106-4DC5-831D-E1A681A49A80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA730ED-14D7-4ED9-88FC-23245E7F2874}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>No NIK</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Ibu Kandung</t>
   </si>
   <si>
-    <t>Alamat Domisili</t>
-  </si>
-  <si>
     <t>Jenis Kelamin</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
   </si>
   <si>
     <t>Tinggal Di</t>
-  </si>
-  <si>
-    <t>Nama Keluarga</t>
   </si>
   <si>
     <t>Hobi</t>
@@ -508,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="M1" sqref="A1:XFD2"/>
+      <selection activeCell="O1" sqref="O1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,7 +522,7 @@
     <col min="14" max="14" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,13 +539,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -566,34 +560,34 @@
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>24</v>
@@ -605,27 +599,21 @@
         <v>26</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>3172022212820000</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>85714156266</v>
@@ -634,34 +622,34 @@
         <v>123456</v>
       </c>
       <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
         <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
       </c>
       <c r="J2" s="5">
         <v>30307</v>
       </c>
       <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" t="s">
+      <c r="S2" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="T2" t="s">
         <v>37</v>
-      </c>
-      <c r="U2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
